--- a/CPA_results.xlsx
+++ b/CPA_results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC838B8D-487F-014B-ADC1-59781B0B174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7976B7CF-8D71-CA42-B7C6-6DB622339909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1387,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="107" workbookViewId="0">
-      <selection activeCell="M164" sqref="M164"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="107" workbookViewId="0">
+      <selection activeCell="K165" sqref="K165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7259,8 +7259,15 @@
       <c r="J164" s="5">
         <v>2032</v>
       </c>
-      <c r="K164" s="5"/>
-      <c r="L164" s="5"/>
+      <c r="K164" s="5">
+        <v>1341</v>
+      </c>
+      <c r="L164" s="5">
+        <v>691</v>
+      </c>
+      <c r="M164" s="5">
+        <v>222</v>
+      </c>
       <c r="N164" s="5">
         <v>1</v>
       </c>
